--- a/src/assets/datos.xlsx
+++ b/src/assets/datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\Trabajo\Innova\collection-tracker\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmancipe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536CA740-E5F8-4F48-B7B5-CDA6F4F8F3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37644EF1-FEC1-45C9-9803-B1C3961F0566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69502BDB-D85B-4C33-B529-A51B61C05DCA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{69502BDB-D85B-4C33-B529-A51B61C05DCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+  <si>
+    <t>Informacion limpia</t>
+  </si>
   <si>
     <t>Código del asesor</t>
   </si>
@@ -74,9 +77,6 @@
     <t>Cassceres Lemus Silvana Milena</t>
   </si>
   <si>
-    <t>Cuentas Ortiz Ivar Jose</t>
-  </si>
-  <si>
     <t>Velasco Jiménez Ana del Pilar</t>
   </si>
   <si>
@@ -110,9 +110,6 @@
     <t>Cruz Castañeda David Orlando</t>
   </si>
   <si>
-    <t>Elles Zambrano Pedro Claver</t>
-  </si>
-  <si>
     <t>Fontecha  Cifuentes Alexander</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Mazo Florez Mateo Estefano</t>
   </si>
   <si>
-    <t>Meza Meneses José de Jesús</t>
-  </si>
-  <si>
     <t>Osorio Durango Juan David</t>
   </si>
   <si>
@@ -200,15 +194,9 @@
     <t>102911</t>
   </si>
   <si>
-    <t>102749</t>
-  </si>
-  <si>
     <t>102607</t>
   </si>
   <si>
-    <t>102620</t>
-  </si>
-  <si>
     <t>102591</t>
   </si>
   <si>
@@ -234,9 +222,6 @@
   </si>
   <si>
     <t>102885</t>
-  </si>
-  <si>
-    <t>102917</t>
   </si>
   <si>
     <t>102920</t>
@@ -719,888 +704,705 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D90554-E955-427F-B848-B05B815EC455}">
-  <dimension ref="A4:F51"/>
+  <dimension ref="A2:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="32.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="35.08984375" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4">
-        <v>555</v>
+        <v>501</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="5">
-        <v>14000000</v>
+        <v>14241043</v>
       </c>
       <c r="F5" s="5">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108426025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6616</v>
+      </c>
       <c r="D6" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E6" s="5">
-        <v>20000000</v>
+        <v>42970113</v>
       </c>
       <c r="F6" s="5">
-        <v>80000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>84621615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4">
+        <v>2781</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E7" s="5">
-        <v>17000000</v>
+        <v>46553504</v>
       </c>
       <c r="F7" s="5">
-        <v>90000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>147777794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4">
+        <v>6616</v>
+      </c>
       <c r="D8" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E8" s="5">
-        <v>40000000</v>
+        <v>46386512</v>
       </c>
       <c r="F8" s="5">
-        <v>200000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>138864221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4">
+        <v>5553</v>
+      </c>
       <c r="D9" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E9" s="5">
-        <v>25000000</v>
+        <v>70659063</v>
       </c>
       <c r="F9" s="5">
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>74513733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4">
+        <v>1995</v>
+      </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="5">
-        <v>10000000</v>
+        <v>26039769</v>
       </c>
       <c r="F10" s="5">
-        <v>40000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67742522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C11" s="4">
+        <v>501</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="5">
-        <v>6000000</v>
+        <v>11206687</v>
       </c>
       <c r="F11" s="5">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>104490065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <v>501</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="5">
-        <v>65000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5">
-        <v>90000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>51677246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4">
+        <v>2781</v>
+      </c>
       <c r="D13" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E13" s="5">
-        <v>13000000</v>
+        <v>55279158</v>
       </c>
       <c r="F13" s="5">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>191664295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4">
+        <v>6616</v>
+      </c>
       <c r="D14" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E14" s="5">
-        <v>20000000</v>
+        <v>61634175</v>
       </c>
       <c r="F14" s="5">
-        <v>80000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>92299851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2781</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="5">
+        <v>20567665</v>
+      </c>
+      <c r="F15" s="5">
+        <v>139051085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4">
+        <v>501</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5">
+        <v>75090359</v>
+      </c>
+      <c r="F16" s="5">
+        <v>675475372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6616</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="5">
+        <v>69961386</v>
+      </c>
+      <c r="F17" s="5">
+        <v>471163314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4">
+        <v>6616</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="5">
+        <v>17128043</v>
+      </c>
+      <c r="F18" s="5">
+        <v>238444974</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4">
+        <v>501</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="5">
-        <v>17000000</v>
-      </c>
-      <c r="F15" s="5">
-        <v>90000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="5">
-        <v>250000000</v>
-      </c>
-      <c r="F16" s="5">
-        <v>200000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="5">
-        <v>25000000</v>
-      </c>
-      <c r="F17" s="5">
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>18885209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="5">
-        <v>10000000</v>
-      </c>
-      <c r="F18" s="5">
-        <v>40000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5815</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>232783502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="5">
-        <v>6000000</v>
-      </c>
-      <c r="F19" s="5">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="4">
+        <v>6616</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="5">
+        <v>11122284</v>
+      </c>
+      <c r="F21" s="5">
+        <v>39707666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="F20" s="5">
-        <v>90000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5815</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="5">
+        <v>9601101</v>
+      </c>
+      <c r="F22" s="5">
+        <v>58989730</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="5">
-        <v>13000000</v>
-      </c>
-      <c r="F21" s="5">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="4">
+        <v>6616</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="5">
+        <v>196974587</v>
+      </c>
+      <c r="F23" s="5">
+        <v>310313415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="F22" s="5">
-        <v>80000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5553</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4280500</v>
+      </c>
+      <c r="F24" s="5">
+        <v>40408557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="5">
-        <v>17000000</v>
-      </c>
-      <c r="F23" s="5">
-        <v>90000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1995</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="5">
+        <v>14255732</v>
+      </c>
+      <c r="F25" s="5">
+        <v>119911613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="5">
-        <v>40000000</v>
-      </c>
-      <c r="F24" s="5">
-        <v>200000000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="B26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1995</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="5">
+        <v>17021221</v>
+      </c>
+      <c r="F26" s="5">
+        <v>196915183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="5">
-        <v>80000000</v>
-      </c>
-      <c r="F25" s="5">
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2781</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="5">
+        <v>20741530</v>
+      </c>
+      <c r="F27" s="5">
+        <v>70601612</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2781</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="5">
+        <v>13156893</v>
+      </c>
+      <c r="F28" s="5">
+        <v>49535551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2781</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="5">
+        <v>12467226</v>
+      </c>
+      <c r="F29" s="5">
+        <v>126802204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1995</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="5">
-        <v>10000000</v>
-      </c>
-      <c r="F26" s="5">
-        <v>40000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="5">
-        <v>30000000</v>
-      </c>
-      <c r="F27" s="5">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="F28" s="5">
-        <v>90000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="E30" s="5">
+        <v>23281166</v>
+      </c>
+      <c r="F30" s="5">
+        <v>209224696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="5">
-        <v>200000000</v>
-      </c>
-      <c r="F29" s="5">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="F30" s="5">
-        <v>80000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4">
+        <v>6616</v>
+      </c>
       <c r="D31" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E31" s="5">
-        <v>17000000</v>
+        <v>8658274</v>
       </c>
       <c r="F31" s="5">
-        <v>90000000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63242729</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4">
+        <v>6616</v>
+      </c>
       <c r="D32" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E32" s="5">
-        <v>40000000</v>
+        <v>0</v>
       </c>
       <c r="F32" s="5">
-        <v>200000000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>126160565</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5815</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="5">
+        <v>8037287</v>
+      </c>
+      <c r="F33" s="5">
+        <v>30872277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5553</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="5">
+        <v>26307979</v>
+      </c>
+      <c r="F34" s="5">
+        <v>33233931</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="5">
-        <v>25000000</v>
-      </c>
-      <c r="F33" s="5">
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="5">
-        <v>10000000</v>
-      </c>
-      <c r="F34" s="5">
-        <v>40000000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="4">
+        <v>501</v>
+      </c>
       <c r="D35" s="4" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E35" s="5">
-        <v>6000000</v>
+        <v>5168220</v>
       </c>
       <c r="F35" s="5">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>427785497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="4">
+        <v>5553</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="5">
+        <v>15373677</v>
+      </c>
+      <c r="F36" s="5">
+        <v>75824518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="F36" s="5">
-        <v>90000000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="4">
+        <v>1995</v>
+      </c>
       <c r="D37" s="4" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="E37" s="5">
-        <v>13000000</v>
+        <v>15659960</v>
       </c>
       <c r="F37" s="5">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="F38" s="5">
-        <v>80000000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="5">
-        <v>17000000</v>
-      </c>
-      <c r="F39" s="5">
-        <v>90000000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="5">
-        <v>40000000</v>
-      </c>
-      <c r="F40" s="5">
-        <v>200000000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="5">
-        <v>25000000</v>
-      </c>
-      <c r="F41" s="5">
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="5">
-        <v>10000000</v>
-      </c>
-      <c r="F42" s="5">
-        <v>40000000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="5">
-        <v>6000000</v>
-      </c>
-      <c r="F43" s="5">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="F44" s="5">
-        <v>90000000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="5">
-        <v>13000000</v>
-      </c>
-      <c r="F45" s="5">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="F46" s="5">
-        <v>80000000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="5">
-        <v>17000000</v>
-      </c>
-      <c r="F47" s="5">
-        <v>90000000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="5">
-        <v>40000000</v>
-      </c>
-      <c r="F48" s="5">
-        <v>200000000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="5">
-        <v>25000000</v>
-      </c>
-      <c r="F49" s="5">
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="5">
-        <v>10000000</v>
-      </c>
-      <c r="F50" s="5">
-        <v>40000000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="5">
-        <v>6000000</v>
-      </c>
-      <c r="F51" s="5">
-        <v>20000000</v>
+        <v>30401101</v>
       </c>
     </row>
   </sheetData>
@@ -1609,15 +1411,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008572A102D8505348BF62B2BFAEFB3684" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5b9b68a8b127304f619cdb3c1114c129">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="366c9a5c-1a47-49be-bdd2-97f9ff4a879e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7016e6c1bfdc70ca8b7e84079cd28f" ns3:_="">
     <xsd:import namespace="366c9a5c-1a47-49be-bdd2-97f9ff4a879e"/>
@@ -1767,6 +1560,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1774,14 +1576,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3AB2267-2ADF-4D35-A32B-047035263D56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A5C9A82-2D32-457C-9DC1-D73B40CD231F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1795,6 +1589,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3AB2267-2ADF-4D35-A32B-047035263D56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
